--- a/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/18. UPGRADE 4G/25 TB TG102LE-4G UPGR 211024.xlsx
+++ b/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/18. UPGRADE 4G/25 TB TG102LE-4G UPGR 211024.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BH VNET\VNET NEW\VNET\2. Báo cáo - bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\Danh Sách IMEI nhập kho\18. UPGRADE 4G\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D43166B-B05B-40F7-9D10-8F913DC1D836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0107101C-1898-43ED-8B6C-D1CB6EC6A713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>005185070140408</t>
   </si>
@@ -82,6 +82,24 @@
   </si>
   <si>
     <t>005185070142966</t>
+  </si>
+  <si>
+    <t>005185070133841</t>
+  </si>
+  <si>
+    <t>005185070137123</t>
+  </si>
+  <si>
+    <t>005185070142388</t>
+  </si>
+  <si>
+    <t>005185070140465</t>
+  </si>
+  <si>
+    <t>005185070136471</t>
+  </si>
+  <si>
+    <t>005185070144905</t>
   </si>
 </sst>
 </file>
@@ -452,7 +470,7 @@
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A20"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -556,22 +574,34 @@
       </c>
     </row>
     <row r="20" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
